--- a/Dialogs/幅度和主臂长.xlsx
+++ b/Dialogs/幅度和主臂长.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cache\ztzp-ConCaSys\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0341493-8C08-4B3F-BF17-50768BFA62DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC952F2-21DD-4996-BF7B-A6D787728C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="29040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22215" yWindow="10590" windowWidth="21600" windowHeight="14730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STC120T5-1 配置1.2t，支腿半伸" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="105">
   <si>
     <r>
       <rPr>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1207,8 +1207,8 @@
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>3</v>
+      <c r="C1" s="13">
+        <v>14.5</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>4</v>
